--- a/Database/turni.xlsx
+++ b/Database/turni.xlsx
@@ -417,7 +417,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P7"/>
+  <dimension ref="A1:P9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,6 +916,144 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>7</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5783861406</v>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Oooo</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Vvvvv</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>18</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>CERCA 1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>2025-12-17 13:30:10</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>2025-12-17 13:30:41</t>
+        </is>
+      </c>
+      <c r="J8" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="K8" t="inlineStr">
+        <is>
+          <t>d:\MO.VE_project_CA__Pt\Pulizie_BOT_MOVE\archivio\video\2025\12\17\CERCA_1\Oooo_Vvvvv_ingresso_13-30.mp4</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr">
+        <is>
+          <t>BAACAgQAAxkBAAIBrWlColIVKlGEod-hBK9cr3CQ_6nWAAJ4GAAC6vYYUi98IQuw9AXHNgQ</t>
+        </is>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>d:\MO.VE_project_CA__Pt\Pulizie_BOT_MOVE\archivio\video\2025\12\17\CERCA_1\Oooo_Vvvvv_uscita_13-30.mp4</t>
+        </is>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>BAACAgQAAxkBAAIBuGlConGwbQwY97zxMHC74d3bd6MOAAJ5GAAC6vYYUgsIX-xdL-UVNgQ</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>completato</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>8</v>
+      </c>
+      <c r="B9" t="n">
+        <v>5783861406</v>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Oooo</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Vvvvv</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>65</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Rainusso</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2025-12-17</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>2025-12-17 15:28:58</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>2025-12-17 15:57:35</t>
+        </is>
+      </c>
+      <c r="J9" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>D:\MO.VE_project_CA__Pt\Pulizie_BOT_MOVE\archivio\video\2025\12\17\Rainusso\Oooo_Vvvvv_ingresso_15-28.mp4</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>BAACAgQAAxkBAAICWWlCvioMOEb0mqcXsuYXExLEAZCuAALKGAAC6vYYUlwK0P7tglcQNgQ</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>d:\MO.VE_project_CA__Pt\Pulizie_BOT_MOVE\archivio\video\2025\12\17\Rainusso\Oooo_Vvvvv_uscita_15-57.mp4</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>BAACAgQAAxkBAAICa2lCxN-ap43h5H2fk7Ca0SH-qgFCAALZGAAC6vYYUhRaPDP1iRGHNgQ</t>
+        </is>
+      </c>
+      <c r="O9" t="inlineStr">
+        <is>
+          <t>completato</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
